--- a/Examples/tgas/tgas_fp.xlsx
+++ b/Examples/tgas/tgas_fp.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="tfp" sheetId="2" r:id="rId3"/>
     <sheet name="atfp" sheetId="3" r:id="rId5"/>
+    <sheet name="Index" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>Key</t>
   </si>
@@ -306,6 +307,147 @@
   </si>
   <si>
     <t>OUT3</t>
+  </si>
+  <si>
+    <t>Value(kW)</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>tfp</t>
+  </si>
+  <si>
+    <t>atfp</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>FP Table</t>
+  </si>
+  <si>
+    <t>Diagram FP</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>COMB</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>GTRB</t>
+  </si>
+  <si>
+    <t>HRSG</t>
+  </si>
+  <si>
+    <t>STCK</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>COMB</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>GTRB</t>
+  </si>
+  <si>
+    <t>HRSG</t>
+  </si>
+  <si>
+    <t>STCK</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>GTRB</t>
+  </si>
+  <si>
+    <t>COMB</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>COMB</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>GTRB</t>
+  </si>
+  <si>
+    <t>STCK</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>COMB</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>GTRB</t>
+  </si>
+  <si>
+    <t>STCK</t>
+  </si>
+  <si>
+    <t>OUT1</t>
+  </si>
+  <si>
+    <t>OUT2</t>
   </si>
   <si>
     <t>Value(kW)</t>
@@ -361,7 +503,7 @@
     <col min="2" max="2" width="6.5703125" customWidth="true"/>
     <col min="3" max="3" width="6.5703125" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="5.85546875" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="6.140625" customWidth="true"/>
     <col min="8" max="8" width="6.140625" customWidth="true"/>
@@ -369,33 +511,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -407,10 +549,10 @@
         <v>15146.476932403759</v>
       </c>
       <c r="E2" s="0">
-        <v>7737.0649469536229</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>594.45812064261895</v>
+        <v>8331.5230675962412</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -421,7 +563,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -433,10 +575,10 @@
         <v>6136.5230675962421</v>
       </c>
       <c r="E3" s="0">
-        <v>3134.6350530463783</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>240.84187935738103</v>
+        <v>3375.4769324037593</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -447,7 +589,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -473,7 +615,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -491,15 +633,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>7168</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>7168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -517,15 +659,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>835.29999999999995</v>
+        <v>11707</v>
       </c>
       <c r="H6" s="0">
-        <v>835.29999999999995</v>
+        <v>11707</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B7" s="0">
         <v>36620</v>
@@ -551,7 +693,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B8" s="0">
         <v>36620</v>
@@ -563,16 +705,16 @@
         <v>21283</v>
       </c>
       <c r="E8" s="0">
-        <v>10871.700000000001</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>835.29999999999995</v>
+        <v>11707</v>
       </c>
       <c r="G8" s="0">
-        <v>18003.299999999999</v>
+        <v>21707</v>
       </c>
       <c r="H8" s="0">
-        <v>97838.300000000003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -592,27 +734,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D2" s="0">
         <v>36620</v>
@@ -620,13 +762,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="D3" s="0">
         <v>10225</v>
@@ -634,13 +776,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D4" s="0">
         <v>15146.476932403759</v>
@@ -648,13 +790,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D5" s="0">
         <v>6136.5230675962421</v>
@@ -662,58 +804,58 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="D6" s="0">
-        <v>7737.0649469536229</v>
+        <v>8331.5230675962412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="D7" s="0">
-        <v>3134.6350530463783</v>
+        <v>3375.4769324037593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D8" s="0">
-        <v>594.45812064261895</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D9" s="0">
-        <v>240.84187935738103</v>
+        <v>11707</v>
       </c>
     </row>
     <row r="10">
@@ -760,4 +902,41 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="true"/>
+    <col min="2" max="2" width="11.28515625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>